--- a/cases/NorthSea/Cost_Networks/NetworkCost.xlsx
+++ b/cases/NorthSea/Cost_Networks/NetworkCost.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Cost_Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C37B2D-1773-459F-9830-5A64B2CEC089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC81CDA-AD86-4DE5-B837-4CB1AD8229AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A7FF563-27D4-4AF5-809C-541AF091A2A6}"/>
   </bookViews>
   <sheets>
     <sheet name="ToModel" sheetId="1" r:id="rId1"/>
-    <sheet name="DC" sheetId="9" r:id="rId2"/>
-    <sheet name="ACDC" sheetId="10" r:id="rId3"/>
+    <sheet name="H2" sheetId="11" r:id="rId2"/>
+    <sheet name="DC" sheetId="9" r:id="rId3"/>
+    <sheet name="ACDC" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToModel!$A$2:$N$2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'H2'!$Z$38</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +49,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
   <si>
     <t>interest rate</t>
   </si>
@@ -67,15 +81,15 @@
     <t>EUR/MWh_e</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>km</t>
   </si>
   <si>
     <t>EUR/MW</t>
   </si>
   <si>
-    <t>EUR/MW_e</t>
-  </si>
-  <si>
     <t>annualization factor</t>
   </si>
   <si>
@@ -230,6 +244,138 @@
   </si>
   <si>
     <t>rated power</t>
+  </si>
+  <si>
+    <t>https://ehb.eu/page/publications</t>
+  </si>
+  <si>
+    <t>European Hydrogen Backbone, April 2022</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>mio EUR/km</t>
+  </si>
+  <si>
+    <t>repurposed</t>
+  </si>
+  <si>
+    <t>factors</t>
+  </si>
+  <si>
+    <t>gamma1</t>
+  </si>
+  <si>
+    <t>gamma2</t>
+  </si>
+  <si>
+    <t>gamma3</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>S*D</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>X Variable 2</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted Y</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>gamma1 * D + gamma2</t>
+  </si>
+  <si>
+    <t>hydrogenPipeline_int</t>
   </si>
 </sst>
 </file>
@@ -242,7 +388,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +397,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -288,6 +442,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -303,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -311,27 +473,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -353,6 +544,3101 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 1  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$H$21:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1950000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4550000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5850000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7150000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7800000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AA$45:$AA$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>29.22364559950131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6942735535864131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-21.835098492328484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-47.364470538243381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-51.840362021220358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1067111621796357</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.053784345579629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.00085752897962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-113.54807607815115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-52.18924888238945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1695783133722557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.528405509133961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4CFD-40ED-A9E1-3FA4D88161A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="752194288"/>
+        <c:axId val="752199536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="752194288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="752199536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="752199536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="752194288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 2  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$I$21:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AA$45:$AA$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>29.22364559950131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6942735535864131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-21.835098492328484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-47.364470538243381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-51.840362021220358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1067111621796357</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.053784345579629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.00085752897962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-113.54807607815115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-52.18924888238945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1695783133722557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.528405509133961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5AC1-4CA8-990C-5D3F3E762A85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="829651080"/>
+        <c:axId val="829652720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="829651080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="829652720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="829652720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="829651080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 2  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$I$21:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AA$45:$AA$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>29.22364559950131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6942735535864131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-21.835098492328484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-47.364470538243381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-51.840362021220358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1067111621796357</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.053784345579629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.00085752897962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-113.54807607815115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-52.18924888238945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1695783133722557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.528405509133961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DE25-429D-912D-B5267057C7A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="752199864"/>
+        <c:axId val="752194944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="752199864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="752194944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="752194944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="752199864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 1  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$H$21:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1950000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4550000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5850000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7150000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7800000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AA$84:$AA$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-25.578326776760122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-51.056821044944286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-76.535315313128422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-102.01380958131267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.929374165325186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109.89484162221245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164.86030907909972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219.82577653598702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.35430829752984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122.71783190354361</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>184.08135550955737</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>245.44487911557115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4805-4D0E-B675-DB658E87441F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="786549720"/>
+        <c:axId val="786545128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="786549720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="786545128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="786545128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="786549720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 2  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$I$21:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AA$84:$AA$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-25.578326776760122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-51.056821044944286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-76.535315313128422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-102.01380958131267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.929374165325186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109.89484162221245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164.86030907909972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219.82577653598702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.35430829752984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122.71783190354361</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>184.08135550955737</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>245.44487911557115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A39F-47E2-BD70-5E696604667A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="786546112"/>
+        <c:axId val="786553656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="786546112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="786553656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="786553656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="786546112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 1  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$H$21:$H$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1950000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4550000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5850000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7150000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8450000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9100000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9750000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10400000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11050000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11700000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12350000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AA$84:$AA$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-25.578326776760122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-51.056821044944286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-76.535315313128422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-102.01380958131267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.929374165325186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109.89484162221245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164.86030907909972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219.82577653598702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.35430829752984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122.71783190354361</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>184.08135550955737</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>245.44487911557115</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-127.49230384949681</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-152.97079811768072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-178.44929238586496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-203.92778665404921</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>357.92520816475474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>429.51577898279606</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>501.10634980083739</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>572.69692061887872</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>306.80840272158491</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>368.17192632759873</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>429.53544993361243</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>490.89897353962624</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-229.40628092223324</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-254.88477519041749</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-280.36326945860174</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-305.84176372678576</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>644.28749143691994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>715.87806225496126</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>787.46863307300259</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>859.05920389104392</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>552.26249714564005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>613.62602075165375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>674.98954435766757</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>736.35306796368127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4380-4F66-830C-5E56C28CB3E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="829660592"/>
+        <c:axId val="829655344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="829660592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="829655344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="829655344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="829660592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 2  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$I$21:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AA$84:$AA$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-25.578326776760122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-51.056821044944286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-76.535315313128422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-102.01380958131267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.929374165325186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109.89484162221245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164.86030907909972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219.82577653598702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.35430829752984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122.71783190354361</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>184.08135550955737</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>245.44487911557115</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-127.49230384949681</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-152.97079811768072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-178.44929238586496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-203.92778665404921</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>357.92520816475474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>429.51577898279606</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>501.10634980083739</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>572.69692061887872</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>306.80840272158491</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>368.17192632759873</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>429.53544993361243</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>490.89897353962624</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-229.40628092223324</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-254.88477519041749</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-280.36326945860174</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-305.84176372678576</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>644.28749143691994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>715.87806225496126</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>787.46863307300259</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>859.05920389104392</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>552.26249714564005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>613.62602075165375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>674.98954435766757</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>736.35306796368127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-48C9-4D6F-9C01-B4103760F803}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="829656000"/>
+        <c:axId val="829658952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="829656000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="829658952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="829658952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="829656000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 1  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$H$21:$H$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1950000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4550000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5850000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7150000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8450000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9100000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9750000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10400000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11050000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11700000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12350000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AA$45:$AA$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>29.22364559950131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6942735535864131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-21.835098492328484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-47.364470538243381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-51.840362021220358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1067111621796357</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.053784345579629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.00085752897962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-113.54807607815115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-52.18924888238945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1695783133722557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.528405509133961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.266210252077713</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.1196596272707211</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-30.505529506619496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-56.891399385967816</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.1078647075032677</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68.231432864369481</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>139.57073043624223</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>210.91002800811486</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-184.63954342058764</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-123.3597775632968</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-62.080011706005848</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.80024584871500792</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-83.27726926531659</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-109.66313914466491</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-136.04900902401369</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-162.43487890336201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>282.2493255799875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>353.58862315186025</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>424.927920723733</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>496.26721829560574</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60.479520008575946</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>121.7592858658669</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>183.03905172315774</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>244.31881758044858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F14-4986-B788-B3F364B97DAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="780157304"/>
+        <c:axId val="780158288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="780157304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="780158288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="780158288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="780157304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$I$21:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AA$45:$AA$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>29.22364559950131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6942735535864131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-21.835098492328484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-47.364470538243381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-51.840362021220358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1067111621796357</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.053784345579629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.00085752897962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-113.54807607815115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-52.18924888238945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1695783133722557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.528405509133961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.266210252077713</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.1196596272707211</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-30.505529506619496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-56.891399385967816</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.1078647075032677</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68.231432864369481</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>139.57073043624223</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>210.91002800811486</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-184.63954342058764</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-123.3597775632968</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-62.080011706005848</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.80024584871500792</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-83.27726926531659</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-109.66313914466491</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-136.04900902401369</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-162.43487890336201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>282.2493255799875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>353.58862315186025</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>424.927920723733</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>496.26721829560574</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60.479520008575946</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>121.7592858658669</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>183.03905172315774</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>244.31881758044858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7979-42C8-935F-531A83072EEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="780157960"/>
+        <c:axId val="780155008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="780157960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="780155008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="780155008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="780157960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 1  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$H$21:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1950000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4550000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5850000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7150000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7800000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$AA$45:$AA$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>29.22364559950131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6942735535864131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-21.835098492328484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-47.364470538243381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-51.840362021220358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1067111621796357</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.053784345579629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.00085752897962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-113.54807607815115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-52.18924888238945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1695783133722557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.528405509133961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E992-45E7-9F13-6FDA6D5A9BE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="829653704"/>
+        <c:axId val="829656000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="829653704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="829656000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="829656000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="829653704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA52838-EDDB-4C43-8B48-81286BDE3C25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892116B7-40C5-505F-50EB-CEBE928939E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB8D937-7900-A1A4-EE55-7D1208B66620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB49717-9F9A-83DB-9B3D-83DF690FCEAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2B6689-BBE8-BAED-4FF6-30D645593872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F855160-87A3-67E0-014A-0893932D4D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85389E6E-F805-C3DC-FF12-B09790EA72D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8678252-F9A7-A0E5-C5FF-1EE97DD1F01F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFF11C5-719A-3E8D-D435-2B3CA4EA674E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2C124E-D0C4-F84F-09F9-832B4B6CA3B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -656,10 +3942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4BAA7A-A190-40C3-8275-483C16A74E0D}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,71 +4107,74 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
         <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>330</v>
@@ -896,15 +4185,15 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <f>0.7%/100</f>
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="6"/>
       <c r="G3">
         <v>40</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I3">
@@ -914,7 +4203,7 @@
         <v>2030</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>0.1</v>
@@ -922,7 +4211,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>240</v>
@@ -933,15 +4222,15 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <f>0.35%/100</f>
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
       <c r="G4">
         <v>40</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I4">
@@ -951,7 +4240,7 @@
         <v>2030</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>0.1</v>
@@ -959,23 +4248,2463 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <f>B3*F5</f>
+        <v>330000</v>
+      </c>
+      <c r="C5">
+        <f>C3*F5</f>
+        <v>38800000</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <f>0.7%/100</f>
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J5">
+        <v>2030</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <f>B4*F6</f>
+        <v>240000</v>
+      </c>
+      <c r="C6">
+        <f>C4*F6</f>
+        <v>121000000</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <f>0.35%/100</f>
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J6">
+        <v>2030</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7">
+        <v>13000</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7" s="5">
+        <f>(0.8+1.7)/2/100</f>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:N2" xr:uid="{2A4BAA7A-A190-40C3-8275-483C16A74E0D}"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83D4304-D793-4A46-9E41-9D5D2FD6D4F2}">
+  <dimension ref="A1:AG119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>13000</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.62</v>
+      </c>
+      <c r="E5">
+        <f>C5+D5</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>13000</v>
+      </c>
+      <c r="C6">
+        <v>2.8</v>
+      </c>
+      <c r="D6">
+        <v>0.62</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E10" si="0">C6+D6</f>
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>3600</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
+      </c>
+      <c r="D7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>4700</v>
+      </c>
+      <c r="C8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.32</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>1200</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+      <c r="D9">
+        <v>0.09</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1200</v>
+      </c>
+      <c r="C10">
+        <v>1.5</v>
+      </c>
+      <c r="D10">
+        <v>0.09</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14">
+        <f>P37</f>
+        <v>9.2540894220283573E-5</v>
+      </c>
+      <c r="C14">
+        <f>P38</f>
+        <v>-3.8402806153825454E-3</v>
+      </c>
+      <c r="D14">
+        <f>P36</f>
+        <v>39.567835104559464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f>Z37</f>
+        <v>3.0235288007063831E-4</v>
+      </c>
+      <c r="C15">
+        <f>Z38</f>
+        <v>-1.9462705162655004E-2</v>
+      </c>
+      <c r="D15">
+        <f>Z36</f>
+        <v>198.26214946909886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <f>C21*A21</f>
+        <v>650000</v>
+      </c>
+      <c r="C21">
+        <v>13000</v>
+      </c>
+      <c r="D21">
+        <f>($C$5+$D$5)*A21*10^6</f>
+        <v>56000000.000000007</v>
+      </c>
+      <c r="E21">
+        <f>B21*$P$37+C21*$P$38+$P$36</f>
+        <v>49.795768347770696</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <f>I21*G21</f>
+        <v>650000</v>
+      </c>
+      <c r="I21">
+        <v>13000</v>
+      </c>
+      <c r="J21">
+        <f>($C$6+$D$6)*G21*10^6</f>
+        <v>171000000</v>
+      </c>
+      <c r="K21">
+        <f>H21*$Z$37+I21*$Z$38+$Z$36</f>
+        <v>141.77635440049869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <f>C22*A22</f>
+        <v>1300000</v>
+      </c>
+      <c r="C22">
+        <v>13000</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D40" si="1">($C$5+$D$5)*A22*10^6</f>
+        <v>112000000.00000001</v>
+      </c>
+      <c r="E22">
+        <f>B22*$P$37+C22*$P$38+$P$36</f>
+        <v>109.94734959095501</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <f>I22*G22</f>
+        <v>1300000</v>
+      </c>
+      <c r="I22">
+        <v>13000</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:J40" si="2">($C$6+$D$6)*G22*10^6</f>
+        <v>342000000</v>
+      </c>
+      <c r="K22">
+        <f>H22*$Z$37+I22*$Z$38+$Z$36</f>
+        <v>338.30572644641359</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Y22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z22" s="10"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>150</v>
+      </c>
+      <c r="B23">
+        <f>C23*A23</f>
+        <v>1950000</v>
+      </c>
+      <c r="C23">
+        <v>13000</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>168000000.00000003</v>
+      </c>
+      <c r="E23">
+        <f>B23*$P$37+C23*$P$38+$P$36</f>
+        <v>170.09893083413934</v>
+      </c>
+      <c r="G23">
+        <v>150</v>
+      </c>
+      <c r="H23">
+        <f>I23*G23</f>
+        <v>1950000</v>
+      </c>
+      <c r="I23">
+        <v>13000</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>513000000</v>
+      </c>
+      <c r="K23">
+        <f>H23*$Z$37+I23*$Z$38+$Z$36</f>
+        <v>534.83509849232848</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0.97977577700084184</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>0.93855775701874167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>200</v>
+      </c>
+      <c r="B24">
+        <f>C24*A24</f>
+        <v>2600000</v>
+      </c>
+      <c r="C24">
+        <v>13000</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>224000000.00000003</v>
+      </c>
+      <c r="E24">
+        <f>B24*$P$37+C24*$P$38+$P$36</f>
+        <v>230.25051207732366</v>
+      </c>
+      <c r="G24">
+        <v>200</v>
+      </c>
+      <c r="H24">
+        <f>I24*G24</f>
+        <v>2600000</v>
+      </c>
+      <c r="I24">
+        <v>13000</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>684000000</v>
+      </c>
+      <c r="K24">
+        <f>H24*$Z$37+I24*$Z$38+$Z$36</f>
+        <v>731.36447053824338</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0.95996057319760342</v>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>0.88089066326005128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>250</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:B40" si="3">C25*A25</f>
+        <v>3250000</v>
+      </c>
+      <c r="C25">
+        <v>13000</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>280000000</v>
+      </c>
+      <c r="E25">
+        <f>B25*$P$37+C25*$P$38+$P$36</f>
+        <v>290.40209332050796</v>
+      </c>
+      <c r="G25">
+        <v>250</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H40" si="4">I25*G25</f>
+        <v>3250000</v>
+      </c>
+      <c r="I25">
+        <v>13000</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>855000000</v>
+      </c>
+      <c r="K25">
+        <f>H25*$Z$37+I25*$Z$38+$Z$36</f>
+        <v>927.89384258415828</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0.95106292279707083</v>
+      </c>
+      <c r="Y25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>0.85442192176228504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>300</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>3900000</v>
+      </c>
+      <c r="C26">
+        <v>13000</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>336000000.00000006</v>
+      </c>
+      <c r="E26">
+        <f>B26*$P$37+C26*$P$38+$P$36</f>
+        <v>350.55367456369231</v>
+      </c>
+      <c r="G26">
+        <v>300</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>3900000</v>
+      </c>
+      <c r="I26">
+        <v>13000</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>1026000000</v>
+      </c>
+      <c r="K26">
+        <f>H26*$Z$37+I26*$Z$38+$Z$36</f>
+        <v>1124.4232146300733</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" s="7">
+        <v>13.307416758100223</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>69.201448774718187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>350</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>4550000</v>
+      </c>
+      <c r="C27">
+        <v>13000</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>392000000.00000006</v>
+      </c>
+      <c r="E27">
+        <f>B27*$P$37+C27*$P$38+$P$36</f>
+        <v>410.70525580687661</v>
+      </c>
+      <c r="G27">
+        <v>350</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>4550000</v>
+      </c>
+      <c r="I27">
+        <v>13000</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>1197000000</v>
+      </c>
+      <c r="K27">
+        <f>H27*$Z$37+I27*$Z$38+$Z$36</f>
+        <v>1320.9525866759882</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27" s="8">
+        <v>12</v>
+      </c>
+      <c r="Y27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>400</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>5200000</v>
+      </c>
+      <c r="C28">
+        <v>13000</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>448000000.00000006</v>
+      </c>
+      <c r="E28">
+        <f>B28*$P$37+C28*$P$38+$P$36</f>
+        <v>470.85683705006102</v>
+      </c>
+      <c r="G28">
+        <v>400</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>5200000</v>
+      </c>
+      <c r="I28">
+        <v>13000</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>1368000000</v>
+      </c>
+      <c r="K28">
+        <f>H28*$Z$37+I28*$Z$38+$Z$36</f>
+        <v>1517.4819587219031</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>450</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>5850000</v>
+      </c>
+      <c r="C29">
+        <v>13000</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>504000000.00000006</v>
+      </c>
+      <c r="E29">
+        <f>B29*$P$37+C29*$P$38+$P$36</f>
+        <v>531.00841829324531</v>
+      </c>
+      <c r="G29">
+        <v>450</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>5850000</v>
+      </c>
+      <c r="I29">
+        <v>13000</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>1539000000</v>
+      </c>
+      <c r="K29">
+        <f>H29*$Z$37+I29*$Z$38+$Z$36</f>
+        <v>1714.011330767818</v>
+      </c>
+      <c r="O29" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>500</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="3"/>
+        <v>6500000</v>
+      </c>
+      <c r="C30">
+        <v>13000</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>560000000</v>
+      </c>
+      <c r="E30">
+        <f>B30*$P$37+C30*$P$38+$P$36</f>
+        <v>591.1599995364295</v>
+      </c>
+      <c r="G30">
+        <v>500</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>6500000</v>
+      </c>
+      <c r="I30">
+        <v>13000</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>1710000000</v>
+      </c>
+      <c r="K30">
+        <f>H30*$Z$37+I30*$Z$38+$Z$36</f>
+        <v>1910.5407028137329</v>
+      </c>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB30" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD30" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>550</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="3"/>
+        <v>7150000</v>
+      </c>
+      <c r="C31">
+        <v>13000</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>616000000.00000012</v>
+      </c>
+      <c r="E31">
+        <f>B31*$P$37+C31*$P$38+$P$36</f>
+        <v>651.31158077961391</v>
+      </c>
+      <c r="G31">
+        <v>550</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>7150000</v>
+      </c>
+      <c r="I31">
+        <v>13000</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>1881000000</v>
+      </c>
+      <c r="K31">
+        <f>H31*$Z$37+I31*$Z$38+$Z$36</f>
+        <v>2107.0700748596478</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P31" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>38211.630599702788</v>
+      </c>
+      <c r="R31" s="7">
+        <v>19105.815299851394</v>
+      </c>
+      <c r="S31" s="7">
+        <v>107.88922130949798</v>
+      </c>
+      <c r="T31" s="7">
+        <v>5.1427490430817188E-7</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="7">
+        <v>318749.18538732047</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>159374.59269366023</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>33.280413552506346</v>
+      </c>
+      <c r="AD31" s="7">
+        <v>6.9463414638694794E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>600</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="3"/>
+        <v>7800000</v>
+      </c>
+      <c r="C32">
+        <v>13000</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>672000000.00000012</v>
+      </c>
+      <c r="E32">
+        <f>B32*$P$37+C32*$P$38+$P$36</f>
+        <v>711.4631620227982</v>
+      </c>
+      <c r="G32">
+        <v>600</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>7800000</v>
+      </c>
+      <c r="I32">
+        <v>13000</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>2052000000</v>
+      </c>
+      <c r="K32">
+        <f>H32*$Z$37+I32*$Z$38+$Z$36</f>
+        <v>2303.5994469055627</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>1593.7860669638997</v>
+      </c>
+      <c r="R32" s="7">
+        <v>177.08734077376664</v>
+      </c>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="Y32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>9</v>
+      </c>
+      <c r="AA32" s="7">
+        <v>43099.564612679504</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>4788.8405125199452</v>
+      </c>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+    </row>
+    <row r="33" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>650</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="3"/>
+        <v>8450000</v>
+      </c>
+      <c r="C33">
+        <v>13000</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>728000000.00000012</v>
+      </c>
+      <c r="E33">
+        <f>B33*$P$37+C33*$P$38+$P$36</f>
+        <v>771.6147432659825</v>
+      </c>
+      <c r="G33">
+        <v>650</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>8450000</v>
+      </c>
+      <c r="I33">
+        <v>13000</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>2223000000</v>
+      </c>
+      <c r="K33">
+        <f>H33*$Z$37+I33*$Z$38+$Z$36</f>
+        <v>2500.1288189514776</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P33" s="8">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>39805.416666666686</v>
+      </c>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="Y33" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z33" s="8">
+        <v>11</v>
+      </c>
+      <c r="AA33" s="8">
+        <v>361848.75</v>
+      </c>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+    </row>
+    <row r="34" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>700</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>9100000</v>
+      </c>
+      <c r="C34">
+        <v>13000</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>784000000.00000012</v>
+      </c>
+      <c r="E34">
+        <f>B34*$P$37+C34*$P$38+$P$36</f>
+        <v>831.76632450916679</v>
+      </c>
+      <c r="G34">
+        <v>700</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>9100000</v>
+      </c>
+      <c r="I34">
+        <v>13000</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>2394000000</v>
+      </c>
+      <c r="K34">
+        <f>H34*$Z$37+I34*$Z$38+$Z$36</f>
+        <v>2696.6581909973925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>750</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>9750000</v>
+      </c>
+      <c r="C35">
+        <v>13000</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>840000000.00000012</v>
+      </c>
+      <c r="E35">
+        <f>B35*$P$37+C35*$P$38+$P$36</f>
+        <v>891.9179057523512</v>
+      </c>
+      <c r="G35">
+        <v>750</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>9750000</v>
+      </c>
+      <c r="I35">
+        <v>13000</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>2565000000</v>
+      </c>
+      <c r="K35">
+        <f>H35*$Z$37+I35*$Z$38+$Z$36</f>
+        <v>2893.1875630433074</v>
+      </c>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U35" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="W35" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC35" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD35" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE35" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF35" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG35" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>800</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>10400000</v>
+      </c>
+      <c r="C36">
+        <v>13000</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>896000000.00000012</v>
+      </c>
+      <c r="E36">
+        <f>B36*$P$37+C36*$P$38+$P$36</f>
+        <v>952.0694869955355</v>
+      </c>
+      <c r="G36">
+        <v>800</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>10400000</v>
+      </c>
+      <c r="I36">
+        <v>13000</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>2736000000</v>
+      </c>
+      <c r="K36">
+        <f>H36*$Z$37+I36*$Z$38+$Z$36</f>
+        <v>3089.7169350892223</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P36" s="7">
+        <v>39.567835104559464</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>5.8986172990611365</v>
+      </c>
+      <c r="R36" s="7">
+        <v>6.707984786681676</v>
+      </c>
+      <c r="S36" s="7">
+        <v>8.7735845784733563E-5</v>
+      </c>
+      <c r="T36" s="7">
+        <v>26.22423573088291</v>
+      </c>
+      <c r="U36" s="7">
+        <v>52.911434478236018</v>
+      </c>
+      <c r="V36" s="7">
+        <v>26.22423573088291</v>
+      </c>
+      <c r="W36" s="7">
+        <v>52.911434478236018</v>
+      </c>
+      <c r="Y36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>198.26214946909886</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>32.340617443994461</v>
+      </c>
+      <c r="AB36" s="7">
+        <v>6.1304379798078177</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>1.7275575511672468E-4</v>
+      </c>
+      <c r="AD36" s="7">
+        <v>125.1025900688502</v>
+      </c>
+      <c r="AE36" s="7">
+        <v>271.42170886934753</v>
+      </c>
+      <c r="AF36" s="7">
+        <v>125.1025900688502</v>
+      </c>
+      <c r="AG36" s="7">
+        <v>271.42170886934753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>850</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>11050000</v>
+      </c>
+      <c r="C37">
+        <v>13000</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>952000000.00000012</v>
+      </c>
+      <c r="E37">
+        <f>B37*$P$37+C37*$P$38+$P$36</f>
+        <v>1012.2210682387198</v>
+      </c>
+      <c r="G37">
+        <v>850</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>11050000</v>
+      </c>
+      <c r="I37">
+        <v>13000</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>2907000000</v>
+      </c>
+      <c r="K37">
+        <f>H37*$Z$37+I37*$Z$38+$Z$36</f>
+        <v>3286.2463071351372</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P37" s="7">
+        <v>9.2540894220283573E-5</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>8.7889923415008414E-6</v>
+      </c>
+      <c r="R37" s="7">
+        <v>10.529181346912056</v>
+      </c>
+      <c r="S37" s="7">
+        <v>2.3257765236709474E-6</v>
+      </c>
+      <c r="T37" s="7">
+        <v>7.2658812241178878E-5</v>
+      </c>
+      <c r="U37" s="7">
+        <v>1.1242297619938827E-4</v>
+      </c>
+      <c r="V37" s="7">
+        <v>7.2658812241178878E-5</v>
+      </c>
+      <c r="W37" s="7">
+        <v>1.1242297619938827E-4</v>
+      </c>
+      <c r="Y37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z37" s="7">
+        <v>3.0235288007063831E-4</v>
+      </c>
+      <c r="AA37" s="7">
+        <v>4.460781745478295E-5</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>6.7780245105495371</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>8.1038648058789092E-5</v>
+      </c>
+      <c r="AD37" s="7">
+        <v>2.0144298629850625E-4</v>
+      </c>
+      <c r="AE37" s="7">
+        <v>4.032627738427704E-4</v>
+      </c>
+      <c r="AF37" s="7">
+        <v>2.0144298629850625E-4</v>
+      </c>
+      <c r="AG37" s="7">
+        <v>4.032627738427704E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>900</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>11700000</v>
+      </c>
+      <c r="C38">
+        <v>13000</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>1008000000.0000001</v>
+      </c>
+      <c r="E38">
+        <f>B38*$P$37+C38*$P$38+$P$36</f>
+        <v>1072.3726494819041</v>
+      </c>
+      <c r="G38">
+        <v>900</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>11700000</v>
+      </c>
+      <c r="I38">
+        <v>13000</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>3078000000</v>
+      </c>
+      <c r="K38">
+        <f>H38*$Z$37+I38*$Z$38+$Z$36</f>
+        <v>3482.7756791810521</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P38" s="8">
+        <v>-3.8402806153825454E-3</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>1.332711165910458E-3</v>
+      </c>
+      <c r="R38" s="8">
+        <v>-2.881555068805183</v>
+      </c>
+      <c r="S38" s="8">
+        <v>1.8132015569115364E-2</v>
+      </c>
+      <c r="T38" s="8">
+        <v>-6.8550827252880355E-3</v>
+      </c>
+      <c r="U38" s="8">
+        <v>-8.2547850547705533E-4</v>
+      </c>
+      <c r="V38" s="8">
+        <v>-6.8550827252880355E-3</v>
+      </c>
+      <c r="W38" s="8">
+        <v>-8.2547850547705533E-4</v>
+      </c>
+      <c r="Y38" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z38" s="8">
+        <v>-1.9462705162655004E-2</v>
+      </c>
+      <c r="AA38" s="8">
+        <v>6.8839642692857302E-3</v>
+      </c>
+      <c r="AB38" s="8">
+        <v>-2.8272524959915901</v>
+      </c>
+      <c r="AC38" s="8">
+        <v>1.9811054120046259E-2</v>
+      </c>
+      <c r="AD38" s="8">
+        <v>-3.5035314242866634E-2</v>
+      </c>
+      <c r="AE38" s="8">
+        <v>-3.8900960824433759E-3</v>
+      </c>
+      <c r="AF38" s="8">
+        <v>-3.5035314242866634E-2</v>
+      </c>
+      <c r="AG38" s="8">
+        <v>-3.8900960824433759E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>950</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>12350000</v>
+      </c>
+      <c r="C39">
+        <v>13000</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>1064000000</v>
+      </c>
+      <c r="E39">
+        <f>B39*$P$37+C39*$P$38+$P$36</f>
+        <v>1132.5242307250885</v>
+      </c>
+      <c r="G39">
+        <v>950</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>12350000</v>
+      </c>
+      <c r="I39">
+        <v>13000</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>3249000000</v>
+      </c>
+      <c r="K39">
+        <f>H39*$Z$37+I39*$Z$38+$Z$36</f>
+        <v>3679.305051226967</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1000</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>13000000</v>
+      </c>
+      <c r="C40">
+        <v>13000</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>1120000000</v>
+      </c>
+      <c r="E40">
+        <f>B40*$P$37+C40*$P$38+$P$36</f>
+        <v>1192.6758119682727</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>13000000</v>
+      </c>
+      <c r="I40">
+        <v>13000</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>3420000000</v>
+      </c>
+      <c r="K40">
+        <f>H40*$Z$37+I40*$Z$38+$Z$36</f>
+        <v>3875.8344232728818</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="O42" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="O44" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y44" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z44" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA44" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="O45" s="7">
+        <v>1</v>
+      </c>
+      <c r="P45" s="7">
+        <v>49.795768347770696</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>6.2042316522293106</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>141.77635440049869</v>
+      </c>
+      <c r="AA45" s="7">
+        <v>29.22364559950131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="O46" s="7">
+        <v>2</v>
+      </c>
+      <c r="P46" s="7">
+        <v>109.94734959095501</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>2.0526504090450004</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z46" s="7">
+        <v>338.30572644641359</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>3.6942735535864131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="O47" s="7">
+        <v>3</v>
+      </c>
+      <c r="P47" s="7">
+        <v>170.09893083413934</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>-2.0989308341393098</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z47" s="7">
+        <v>534.83509849232848</v>
+      </c>
+      <c r="AA47" s="7">
+        <v>-21.835098492328484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="O48" s="7">
+        <v>4</v>
+      </c>
+      <c r="P48" s="7">
+        <v>230.25051207732363</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>-6.2505120773236058</v>
+      </c>
+      <c r="Y48" s="7">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>731.36447053824338</v>
+      </c>
+      <c r="AA48" s="7">
+        <v>-47.364470538243381</v>
+      </c>
+    </row>
+    <row r="49" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O49" s="7">
+        <v>5</v>
+      </c>
+      <c r="P49" s="7">
+        <v>42.400185848833345</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>-15.400185848833345</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>177.84036202122036</v>
+      </c>
+      <c r="AA49" s="7">
+        <v>-51.840362021220358</v>
+      </c>
+    </row>
+    <row r="50" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O50" s="7">
+        <v>6</v>
+      </c>
+      <c r="P50" s="7">
+        <v>59.057546808484389</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>-5.0575468084843891</v>
+      </c>
+      <c r="Y50" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z50" s="7">
+        <v>248.89328883782036</v>
+      </c>
+      <c r="AA50" s="7">
+        <v>3.1067111621796357</v>
+      </c>
+    </row>
+    <row r="51" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O51" s="7">
+        <v>7</v>
+      </c>
+      <c r="P51" s="7">
+        <v>75.714907768135433</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>5.2850922318645672</v>
+      </c>
+      <c r="Y51" s="7">
+        <v>7</v>
+      </c>
+      <c r="Z51" s="7">
+        <v>319.94621565442037</v>
+      </c>
+      <c r="AA51" s="7">
+        <v>58.053784345579629</v>
+      </c>
+    </row>
+    <row r="52" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O52" s="7">
+        <v>8</v>
+      </c>
+      <c r="P52" s="7">
+        <v>92.372268727786476</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>15.627731272213524</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>390.99914247102038</v>
+      </c>
+      <c r="AA52" s="7">
+        <v>113.00085752897962</v>
+      </c>
+    </row>
+    <row r="53" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O53" s="7">
+        <v>9</v>
+      </c>
+      <c r="P53" s="7">
+        <v>40.511952019317427</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>-21.011952019317427</v>
+      </c>
+      <c r="Y53" s="7">
+        <v>9</v>
+      </c>
+      <c r="Z53" s="7">
+        <v>193.04807607815115</v>
+      </c>
+      <c r="AA53" s="7">
+        <v>-113.54807607815115</v>
+      </c>
+    </row>
+    <row r="54" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O54" s="7">
+        <v>10</v>
+      </c>
+      <c r="P54" s="7">
+        <v>46.064405672534441</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>-7.0644056725344413</v>
+      </c>
+      <c r="Y54" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z54" s="7">
+        <v>211.18924888238945</v>
+      </c>
+      <c r="AA54" s="7">
+        <v>-52.18924888238945</v>
+      </c>
+    </row>
+    <row r="55" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O55" s="7">
+        <v>11</v>
+      </c>
+      <c r="P55" s="7">
+        <v>51.616859325751456</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>6.8831406742485441</v>
+      </c>
+      <c r="Y55" s="7">
+        <v>11</v>
+      </c>
+      <c r="Z55" s="7">
+        <v>229.33042168662774</v>
+      </c>
+      <c r="AA55" s="7">
+        <v>9.1695783133722557</v>
+      </c>
+    </row>
+    <row r="56" spans="15:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O56" s="8">
+        <v>12</v>
+      </c>
+      <c r="P56" s="8">
+        <v>57.16931297896847</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>20.83068702103153</v>
+      </c>
+      <c r="Y56" s="8">
+        <v>12</v>
+      </c>
+      <c r="Z56" s="8">
+        <v>247.47159449086604</v>
+      </c>
+      <c r="AA56" s="8">
+        <v>70.528405509133961</v>
+      </c>
+    </row>
+    <row r="57" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="Y57" s="7">
+        <v>13</v>
+      </c>
+      <c r="Z57" s="7">
+        <v>832.73378974792229</v>
+      </c>
+      <c r="AA57" s="7">
+        <v>22.266210252077713</v>
+      </c>
+    </row>
+    <row r="58" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="Y58" s="7">
+        <v>14</v>
+      </c>
+      <c r="Z58" s="7">
+        <v>1030.1196596272707</v>
+      </c>
+      <c r="AA58" s="7">
+        <v>-4.1196596272707211</v>
+      </c>
+    </row>
+    <row r="59" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="Y59" s="7">
+        <v>15</v>
+      </c>
+      <c r="Z59" s="7">
+        <v>1227.5055295066195</v>
+      </c>
+      <c r="AA59" s="7">
+        <v>-30.505529506619496</v>
+      </c>
+    </row>
+    <row r="60" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="Y60" s="7">
+        <v>16</v>
+      </c>
+      <c r="Z60" s="7">
+        <v>1424.8913993859678</v>
+      </c>
+      <c r="AA60" s="7">
+        <v>-56.891399385967816</v>
+      </c>
+    </row>
+    <row r="61" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="Y61" s="7">
+        <v>17</v>
+      </c>
+      <c r="Z61" s="7">
+        <v>633.10786470750327</v>
+      </c>
+      <c r="AA61" s="7">
+        <v>-3.1078647075032677</v>
+      </c>
+    </row>
+    <row r="62" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="Y62" s="7">
+        <v>18</v>
+      </c>
+      <c r="Z62" s="7">
+        <v>687.76856713563052</v>
+      </c>
+      <c r="AA62" s="7">
+        <v>68.231432864369481</v>
+      </c>
+    </row>
+    <row r="63" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="Y63" s="7">
+        <v>19</v>
+      </c>
+      <c r="Z63" s="7">
+        <v>742.42926956375777</v>
+      </c>
+      <c r="AA63" s="7">
+        <v>139.57073043624223</v>
+      </c>
+    </row>
+    <row r="64" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="Y64" s="7">
+        <v>20</v>
+      </c>
+      <c r="Z64" s="7">
+        <v>797.08997199188514</v>
+      </c>
+      <c r="AA64" s="7">
+        <v>210.91002800811486</v>
+      </c>
+    </row>
+    <row r="65" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y65" s="7">
+        <v>21</v>
+      </c>
+      <c r="Z65" s="7">
+        <v>582.13954342058764</v>
+      </c>
+      <c r="AA65" s="7">
+        <v>-184.63954342058764</v>
+      </c>
+    </row>
+    <row r="66" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y66" s="7">
+        <v>22</v>
+      </c>
+      <c r="Z66" s="7">
+        <v>600.3597775632968</v>
+      </c>
+      <c r="AA66" s="7">
+        <v>-123.3597775632968</v>
+      </c>
+    </row>
+    <row r="67" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y67" s="7">
+        <v>23</v>
+      </c>
+      <c r="Z67" s="7">
+        <v>618.58001170600585</v>
+      </c>
+      <c r="AA67" s="7">
+        <v>-62.080011706005848</v>
+      </c>
+    </row>
+    <row r="68" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y68" s="7">
+        <v>24</v>
+      </c>
+      <c r="Z68" s="7">
+        <v>636.80024584871501</v>
+      </c>
+      <c r="AA68" s="7">
+        <v>-0.80024584871500792</v>
+      </c>
+    </row>
+    <row r="69" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y69" s="7">
+        <v>25</v>
+      </c>
+      <c r="Z69" s="7">
+        <v>1622.2772692653166</v>
+      </c>
+      <c r="AA69" s="7">
+        <v>-83.27726926531659</v>
+      </c>
+    </row>
+    <row r="70" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y70" s="7">
+        <v>26</v>
+      </c>
+      <c r="Z70" s="7">
+        <v>1819.6631391446649</v>
+      </c>
+      <c r="AA70" s="7">
+        <v>-109.66313914466491</v>
+      </c>
+    </row>
+    <row r="71" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y71" s="7">
+        <v>27</v>
+      </c>
+      <c r="Z71" s="7">
+        <v>2017.0490090240137</v>
+      </c>
+      <c r="AA71" s="7">
+        <v>-136.04900902401369</v>
+      </c>
+    </row>
+    <row r="72" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y72" s="7">
+        <v>28</v>
+      </c>
+      <c r="Z72" s="7">
+        <v>2214.434878903362</v>
+      </c>
+      <c r="AA72" s="7">
+        <v>-162.43487890336201</v>
+      </c>
+    </row>
+    <row r="73" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y73" s="7">
+        <v>29</v>
+      </c>
+      <c r="Z73" s="7">
+        <v>851.7506744200125</v>
+      </c>
+      <c r="AA73" s="7">
+        <v>282.2493255799875</v>
+      </c>
+    </row>
+    <row r="74" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y74" s="7">
+        <v>30</v>
+      </c>
+      <c r="Z74" s="7">
+        <v>906.41137684813975</v>
+      </c>
+      <c r="AA74" s="7">
+        <v>353.58862315186025</v>
+      </c>
+    </row>
+    <row r="75" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y75" s="7">
+        <v>31</v>
+      </c>
+      <c r="Z75" s="7">
+        <v>961.072079276267</v>
+      </c>
+      <c r="AA75" s="7">
+        <v>424.927920723733</v>
+      </c>
+    </row>
+    <row r="76" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y76" s="7">
+        <v>32</v>
+      </c>
+      <c r="Z76" s="7">
+        <v>1015.7327817043943</v>
+      </c>
+      <c r="AA76" s="7">
+        <v>496.26721829560574</v>
+      </c>
+    </row>
+    <row r="77" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y77" s="7">
+        <v>33</v>
+      </c>
+      <c r="Z77" s="7">
+        <v>655.02047999142405</v>
+      </c>
+      <c r="AA77" s="7">
+        <v>60.479520008575946</v>
+      </c>
+    </row>
+    <row r="78" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y78" s="7">
+        <v>34</v>
+      </c>
+      <c r="Z78" s="7">
+        <v>673.2407141341331</v>
+      </c>
+      <c r="AA78" s="7">
+        <v>121.7592858658669</v>
+      </c>
+    </row>
+    <row r="79" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y79" s="7">
+        <v>35</v>
+      </c>
+      <c r="Z79" s="7">
+        <v>691.46094827684226</v>
+      </c>
+      <c r="AA79" s="7">
+        <v>183.03905172315774</v>
+      </c>
+    </row>
+    <row r="80" spans="25:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y80" s="8">
+        <v>36</v>
+      </c>
+      <c r="Z80" s="8">
+        <v>709.68118241955142</v>
+      </c>
+      <c r="AA80" s="8">
+        <v>244.31881758044858</v>
+      </c>
+    </row>
+    <row r="81" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="25:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y83" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z83" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA83" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y84" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z84" s="7">
+        <v>196.57832677676012</v>
+      </c>
+      <c r="AA84" s="7">
+        <v>-25.578326776760122</v>
+      </c>
+    </row>
+    <row r="85" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y85" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z85" s="7">
+        <v>393.05682104494429</v>
+      </c>
+      <c r="AA85" s="7">
+        <v>-51.056821044944286</v>
+      </c>
+    </row>
+    <row r="86" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y86" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z86" s="7">
+        <v>589.53531531312842</v>
+      </c>
+      <c r="AA86" s="7">
+        <v>-76.535315313128422</v>
+      </c>
+    </row>
+    <row r="87" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y87" s="7">
+        <v>4</v>
+      </c>
+      <c r="Z87" s="7">
+        <v>786.01380958131267</v>
+      </c>
+      <c r="AA87" s="7">
+        <v>-102.01380958131267</v>
+      </c>
+    </row>
+    <row r="88" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y88" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z88" s="7">
+        <v>71.070625834674814</v>
+      </c>
+      <c r="AA88" s="7">
+        <v>54.929374165325186</v>
+      </c>
+    </row>
+    <row r="89" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y89" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z89" s="7">
+        <v>142.10515837778755</v>
+      </c>
+      <c r="AA89" s="7">
+        <v>109.89484162221245</v>
+      </c>
+    </row>
+    <row r="90" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y90" s="7">
+        <v>7</v>
+      </c>
+      <c r="Z90" s="7">
+        <v>213.13969092090028</v>
+      </c>
+      <c r="AA90" s="7">
+        <v>164.86030907909972</v>
+      </c>
+    </row>
+    <row r="91" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y91" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z91" s="7">
+        <v>284.17422346401298</v>
+      </c>
+      <c r="AA91" s="7">
+        <v>219.82577653598702</v>
+      </c>
+    </row>
+    <row r="92" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y92" s="7">
+        <v>9</v>
+      </c>
+      <c r="Z92" s="7">
+        <v>18.145691702470163</v>
+      </c>
+      <c r="AA92" s="7">
+        <v>61.35430829752984</v>
+      </c>
+    </row>
+    <row r="93" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y93" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z93" s="7">
+        <v>36.282168096456395</v>
+      </c>
+      <c r="AA93" s="7">
+        <v>122.71783190354361</v>
+      </c>
+    </row>
+    <row r="94" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y94" s="7">
+        <v>11</v>
+      </c>
+      <c r="Z94" s="7">
+        <v>54.418644490442624</v>
+      </c>
+      <c r="AA94" s="7">
+        <v>184.08135550955737</v>
+      </c>
+    </row>
+    <row r="95" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y95" s="7">
+        <v>12</v>
+      </c>
+      <c r="Z95" s="7">
+        <v>72.555120884428845</v>
+      </c>
+      <c r="AA95" s="7">
+        <v>245.44487911557115</v>
+      </c>
+    </row>
+    <row r="96" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y96" s="7">
+        <v>13</v>
+      </c>
+      <c r="Z96" s="7">
+        <v>982.49230384949681</v>
+      </c>
+      <c r="AA96" s="7">
+        <v>-127.49230384949681</v>
+      </c>
+    </row>
+    <row r="97" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y97" s="7">
+        <v>14</v>
+      </c>
+      <c r="Z97" s="7">
+        <v>1178.9707981176807</v>
+      </c>
+      <c r="AA97" s="7">
+        <v>-152.97079811768072</v>
+      </c>
+    </row>
+    <row r="98" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y98" s="7">
+        <v>15</v>
+      </c>
+      <c r="Z98" s="7">
+        <v>1375.449292385865</v>
+      </c>
+      <c r="AA98" s="7">
+        <v>-178.44929238586496</v>
+      </c>
+    </row>
+    <row r="99" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y99" s="7">
+        <v>16</v>
+      </c>
+      <c r="Z99" s="7">
+        <v>1571.9277866540492</v>
+      </c>
+      <c r="AA99" s="7">
+        <v>-203.92778665404921</v>
+      </c>
+    </row>
+    <row r="100" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y100" s="7">
+        <v>17</v>
+      </c>
+      <c r="Z100" s="7">
+        <v>272.07479183524526</v>
+      </c>
+      <c r="AA100" s="7">
+        <v>357.92520816475474</v>
+      </c>
+    </row>
+    <row r="101" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y101" s="7">
+        <v>18</v>
+      </c>
+      <c r="Z101" s="7">
+        <v>326.48422101720394</v>
+      </c>
+      <c r="AA101" s="7">
+        <v>429.51577898279606</v>
+      </c>
+    </row>
+    <row r="102" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y102" s="7">
+        <v>19</v>
+      </c>
+      <c r="Z102" s="7">
+        <v>380.89365019916261</v>
+      </c>
+      <c r="AA102" s="7">
+        <v>501.10634980083739</v>
+      </c>
+    </row>
+    <row r="103" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y103" s="7">
+        <v>20</v>
+      </c>
+      <c r="Z103" s="7">
+        <v>435.30307938112128</v>
+      </c>
+      <c r="AA103" s="7">
+        <v>572.69692061887872</v>
+      </c>
+    </row>
+    <row r="104" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y104" s="7">
+        <v>21</v>
+      </c>
+      <c r="Z104" s="7">
+        <v>90.691597278415074</v>
+      </c>
+      <c r="AA104" s="7">
+        <v>306.80840272158491</v>
+      </c>
+    </row>
+    <row r="105" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y105" s="7">
+        <v>22</v>
+      </c>
+      <c r="Z105" s="7">
+        <v>108.8280736724013</v>
+      </c>
+      <c r="AA105" s="7">
+        <v>368.17192632759873</v>
+      </c>
+    </row>
+    <row r="106" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y106" s="7">
+        <v>23</v>
+      </c>
+      <c r="Z106" s="7">
+        <v>126.96455006638755</v>
+      </c>
+      <c r="AA106" s="7">
+        <v>429.53544993361243</v>
+      </c>
+    </row>
+    <row r="107" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y107" s="7">
+        <v>24</v>
+      </c>
+      <c r="Z107" s="7">
+        <v>145.10102646037376</v>
+      </c>
+      <c r="AA107" s="7">
+        <v>490.89897353962624</v>
+      </c>
+    </row>
+    <row r="108" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y108" s="7">
+        <v>25</v>
+      </c>
+      <c r="Z108" s="7">
+        <v>1768.4062809222332</v>
+      </c>
+      <c r="AA108" s="7">
+        <v>-229.40628092223324</v>
+      </c>
+    </row>
+    <row r="109" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y109" s="7">
+        <v>26</v>
+      </c>
+      <c r="Z109" s="7">
+        <v>1964.8847751904175</v>
+      </c>
+      <c r="AA109" s="7">
+        <v>-254.88477519041749</v>
+      </c>
+    </row>
+    <row r="110" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y110" s="7">
+        <v>27</v>
+      </c>
+      <c r="Z110" s="7">
+        <v>2161.3632694586017</v>
+      </c>
+      <c r="AA110" s="7">
+        <v>-280.36326945860174</v>
+      </c>
+    </row>
+    <row r="111" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y111" s="7">
+        <v>28</v>
+      </c>
+      <c r="Z111" s="7">
+        <v>2357.8417637267858</v>
+      </c>
+      <c r="AA111" s="7">
+        <v>-305.84176372678576</v>
+      </c>
+    </row>
+    <row r="112" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y112" s="7">
+        <v>29</v>
+      </c>
+      <c r="Z112" s="7">
+        <v>489.71250856308001</v>
+      </c>
+      <c r="AA112" s="7">
+        <v>644.28749143691994</v>
+      </c>
+    </row>
+    <row r="113" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y113" s="7">
+        <v>30</v>
+      </c>
+      <c r="Z113" s="7">
+        <v>544.12193774503874</v>
+      </c>
+      <c r="AA113" s="7">
+        <v>715.87806225496126</v>
+      </c>
+    </row>
+    <row r="114" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y114" s="7">
+        <v>31</v>
+      </c>
+      <c r="Z114" s="7">
+        <v>598.53136692699741</v>
+      </c>
+      <c r="AA114" s="7">
+        <v>787.46863307300259</v>
+      </c>
+    </row>
+    <row r="115" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y115" s="7">
+        <v>32</v>
+      </c>
+      <c r="Z115" s="7">
+        <v>652.94079610895608</v>
+      </c>
+      <c r="AA115" s="7">
+        <v>859.05920389104392</v>
+      </c>
+    </row>
+    <row r="116" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y116" s="7">
+        <v>33</v>
+      </c>
+      <c r="Z116" s="7">
+        <v>163.23750285436</v>
+      </c>
+      <c r="AA116" s="7">
+        <v>552.26249714564005</v>
+      </c>
+    </row>
+    <row r="117" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y117" s="7">
+        <v>34</v>
+      </c>
+      <c r="Z117" s="7">
+        <v>181.37397924834622</v>
+      </c>
+      <c r="AA117" s="7">
+        <v>613.62602075165375</v>
+      </c>
+    </row>
+    <row r="118" spans="25:27" x14ac:dyDescent="0.25">
+      <c r="Y118" s="7">
+        <v>35</v>
+      </c>
+      <c r="Z118" s="7">
+        <v>199.51045564233246</v>
+      </c>
+      <c r="AA118" s="7">
+        <v>674.98954435766757</v>
+      </c>
+    </row>
+    <row r="119" spans="25:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y119" s="8">
+        <v>36</v>
+      </c>
+      <c r="Z119" s="8">
+        <v>217.64693203631867</v>
+      </c>
+      <c r="AA119" s="8">
+        <v>736.35306796368127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDCD6FE-4E00-4CD6-871A-4D2AE5966951}">
   <dimension ref="A1:V19"/>
   <sheetViews>
@@ -992,16 +6721,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L1">
         <v>300</v>
       </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1">
         <v>0.7</v>
@@ -1009,120 +6738,120 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" t="s">
         <v>37</v>
       </c>
-      <c r="P6" t="s">
-        <v>35</v>
-      </c>
       <c r="Q6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>2.58</v>
@@ -1160,23 +6889,23 @@
         <f>$L$1*$N$1*K7+E7/J7*$N$1</f>
         <v>549.15000000000009</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="2">
         <f>O7-M7</f>
         <v>67.899999999999977</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="3">
         <f>$L$1*$N$1*K7+L7*$N$1</f>
         <v>617.05000000000007</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="2">
         <f>M7/$L$1</f>
         <v>1.8305000000000002</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="2">
         <f>N7/$L$1</f>
         <v>0.22633333333333325</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="2">
         <f>O7/$L$1</f>
         <v>2.0568333333333335</v>
       </c>
@@ -1188,14 +6917,14 @@
         <f>L7*10^3</f>
         <v>97000</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="4">
         <f>T7*350*100+U7*350</f>
         <v>125475000</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>0.33</v>
@@ -1233,23 +6962,23 @@
         <f t="shared" ref="M8:M19" si="2">$L$1*$N$1*K8+E8/J8*$N$1</f>
         <v>129.85000000000002</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="2">
         <f t="shared" ref="N8:N19" si="3">O8-M8</f>
         <v>175.63</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="3">
         <f t="shared" ref="O8:O19" si="4">$L$1*$N$1*K8+L8*$N$1</f>
         <v>305.48</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="2">
         <f t="shared" ref="P8:P19" si="5">M8/$L$1</f>
         <v>0.4328333333333334</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="2">
         <f t="shared" ref="Q8:Q19" si="6">N8/$L$1</f>
         <v>0.58543333333333336</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="2">
         <f t="shared" ref="R8:R19" si="7">O8/$L$1</f>
         <v>1.0182666666666667</v>
       </c>
@@ -1261,14 +6990,14 @@
         <f t="shared" ref="U8:U19" si="9">L8*10^3</f>
         <v>253400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="4">
         <f t="shared" ref="V8:V19" si="10">T8*350*100+U8*350</f>
         <v>110040000</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0.33</v>
@@ -1306,23 +7035,23 @@
         <f t="shared" si="2"/>
         <v>179.54999999999998</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="2">
         <f t="shared" si="3"/>
         <v>186.51500000000001</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="3">
         <f t="shared" si="4"/>
         <v>366.065</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="2">
         <f t="shared" si="5"/>
         <v>0.59849999999999992</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="2">
         <f t="shared" si="6"/>
         <v>0.6217166666666667</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="2">
         <f t="shared" si="7"/>
         <v>1.2202166666666667</v>
       </c>
@@ -1334,14 +7063,14 @@
         <f t="shared" si="9"/>
         <v>266450.00000000006</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="4">
         <f t="shared" si="10"/>
         <v>123182500.00000001</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>2.0499999999999998</v>
@@ -1379,23 +7108,23 @@
         <f t="shared" si="2"/>
         <v>442.05</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="2">
         <f t="shared" si="3"/>
         <v>77.699999999999989</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="3">
         <f t="shared" si="4"/>
         <v>519.75</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="2">
         <f t="shared" si="5"/>
         <v>1.4735</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="2">
         <f t="shared" si="6"/>
         <v>0.25899999999999995</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="2">
         <f t="shared" si="7"/>
         <v>1.7324999999999999</v>
       </c>
@@ -1407,14 +7136,14 @@
         <f t="shared" si="9"/>
         <v>111000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="4">
         <f t="shared" si="10"/>
         <v>112525000</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>0.28999999999999998</v>
@@ -1452,23 +7181,23 @@
         <f t="shared" si="2"/>
         <v>172.20000000000002</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="2">
         <f t="shared" si="3"/>
         <v>266.57049999999992</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="3">
         <f t="shared" si="4"/>
         <v>438.77049999999997</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="2">
         <f t="shared" si="5"/>
         <v>0.57400000000000007</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="2">
         <f t="shared" si="6"/>
         <v>0.88856833333333307</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="2">
         <f t="shared" si="7"/>
         <v>1.4625683333333332</v>
       </c>
@@ -1480,14 +7209,14 @@
         <f t="shared" si="9"/>
         <v>380815</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="4">
         <f t="shared" si="10"/>
         <v>161985250</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0.61</v>
@@ -1525,23 +7254,23 @@
         <f t="shared" si="2"/>
         <v>205.79999999999998</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="2">
         <f t="shared" si="3"/>
         <v>152.02599999999998</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="3">
         <f t="shared" si="4"/>
         <v>357.82599999999996</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="2">
         <f t="shared" si="5"/>
         <v>0.68599999999999994</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="2">
         <f t="shared" si="6"/>
         <v>0.50675333333333328</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="2">
         <f t="shared" si="7"/>
         <v>1.1927533333333331</v>
       </c>
@@ -1553,14 +7282,14 @@
         <f t="shared" si="9"/>
         <v>217180</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="4">
         <f t="shared" si="10"/>
         <v>110313000</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>0.5</v>
@@ -1598,23 +7327,23 @@
         <f t="shared" si="2"/>
         <v>152.25</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="2">
         <f t="shared" si="3"/>
         <v>99.399999999999977</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="3">
         <f t="shared" si="4"/>
         <v>251.64999999999998</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="2">
         <f t="shared" si="5"/>
         <v>0.50749999999999995</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="2">
         <f t="shared" si="6"/>
         <v>0.33133333333333326</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="2">
         <f t="shared" si="7"/>
         <v>0.83883333333333321</v>
       </c>
@@ -1626,14 +7355,14 @@
         <f t="shared" si="9"/>
         <v>142000</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="4">
         <f t="shared" si="10"/>
         <v>75075000</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>1.5</v>
@@ -1671,23 +7400,23 @@
         <f t="shared" si="2"/>
         <v>406.35</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="3">
         <f t="shared" si="4"/>
         <v>406.35</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="2">
         <f t="shared" si="5"/>
         <v>1.3545</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="2">
         <f t="shared" si="7"/>
         <v>1.3545</v>
       </c>
@@ -1699,14 +7428,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="4">
         <f t="shared" si="10"/>
         <v>67725000</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0.35</v>
@@ -1744,23 +7473,23 @@
         <f t="shared" si="2"/>
         <v>267.75</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="2">
         <f t="shared" si="3"/>
         <v>228.53250000000003</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="3">
         <f t="shared" si="4"/>
         <v>496.28250000000003</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="2">
         <f t="shared" si="5"/>
         <v>0.89249999999999996</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="2">
         <f t="shared" si="6"/>
         <v>0.76177500000000009</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="2">
         <f t="shared" si="7"/>
         <v>1.6542750000000002</v>
       </c>
@@ -1772,14 +7501,14 @@
         <f t="shared" si="9"/>
         <v>326475</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="4">
         <f t="shared" si="10"/>
         <v>158891250</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>1.3</v>
@@ -1817,23 +7546,23 @@
         <f t="shared" si="2"/>
         <v>273</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="2">
         <f t="shared" si="3"/>
         <v>122.5</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="3">
         <f t="shared" si="4"/>
         <v>395.5</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="2">
         <f t="shared" si="5"/>
         <v>0.91</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="2">
         <f t="shared" si="6"/>
         <v>0.40833333333333333</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="2">
         <f t="shared" si="7"/>
         <v>1.3183333333333334</v>
       </c>
@@ -1845,14 +7574,14 @@
         <f t="shared" si="9"/>
         <v>175000</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="4">
         <f t="shared" si="10"/>
         <v>106750000</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>0.63</v>
@@ -1890,23 +7619,23 @@
         <f t="shared" si="2"/>
         <v>192.52099999999999</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="2">
         <f t="shared" si="3"/>
         <v>99.448999999999984</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="3">
         <f t="shared" si="4"/>
         <v>291.96999999999997</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="2">
         <f t="shared" si="5"/>
         <v>0.64173666666666662</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="2">
         <f t="shared" si="6"/>
         <v>0.33149666666666661</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="2">
         <f t="shared" si="7"/>
         <v>0.97323333333333328</v>
       </c>
@@ -1918,14 +7647,14 @@
         <f t="shared" si="9"/>
         <v>144100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="4">
         <f t="shared" si="10"/>
         <v>82285000</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>0.63</v>
@@ -1963,23 +7692,23 @@
         <f t="shared" si="2"/>
         <v>284.55</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="2">
         <f t="shared" si="3"/>
         <v>443.26449999999994</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="3">
         <f t="shared" si="4"/>
         <v>727.81449999999995</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="2">
         <f t="shared" si="5"/>
         <v>0.94850000000000001</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="2">
         <f t="shared" si="6"/>
         <v>1.4775483333333332</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="2">
         <f t="shared" si="7"/>
         <v>2.4260483333333331</v>
       </c>
@@ -1991,14 +7720,14 @@
         <f t="shared" si="9"/>
         <v>633235</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="4">
         <f t="shared" si="10"/>
         <v>269057250</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>1.48</v>
@@ -2036,23 +7765,23 @@
         <f t="shared" si="2"/>
         <v>310.8</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="3">
         <f t="shared" si="4"/>
         <v>310.8</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="2">
         <f t="shared" si="5"/>
         <v>1.036</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="2">
         <f t="shared" si="7"/>
         <v>1.036</v>
       </c>
@@ -2064,7 +7793,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="4">
         <f t="shared" si="10"/>
         <v>51800000</v>
       </c>
@@ -2074,7 +7803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220A59A8-D123-4429-B71D-A74BAF1E63EB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2084,7 +7813,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
